--- a/jpcore-r4/feature/swg5-add_examples/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/feature/swg5-add_examples/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3129" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3273" uniqueCount="526">
   <si>
     <t>Property</t>
   </si>
@@ -690,6 +690,10 @@
   </si>
   <si>
     <t>MedicationAdministration.medication[x]</t>
+  </si>
+  <si>
+    <t>CodeableConcept
+Reference(Medication)</t>
   </si>
   <si>
     <t>What was administered　医薬品</t>
@@ -717,6 +721,13 @@
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>Event.code</t>
   </si>
   <si>
@@ -760,6 +771,24 @@
     <t>Element.extension</t>
   </si>
   <si>
+    <t>medicationCodeableConcept</t>
+  </si>
+  <si>
+    <t>What was administered</t>
+  </si>
+  <si>
+    <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
+  </si>
+  <si>
+    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
     <t>MedicationAdministration.medication[x].coding</t>
   </si>
   <si>
@@ -793,12 +822,6 @@
     <t>MedicationAdministration.medication[x].coding.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
     <t>MedicationAdministration.medication[x].coding.extension</t>
   </si>
   <si>
@@ -939,6 +962,13 @@
   </si>
   <si>
     <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>medicationReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Medication)
+</t>
   </si>
   <si>
     <t>MedicationAdministration.subject</t>
@@ -1114,8 +1144,8 @@
     <t>MedicationAdministration.effective[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime
-</t>
+    <t>dateTime
+Period</t>
   </si>
   <si>
     <t>Start and end time of administration　開始時間と終了時間</t>
@@ -1993,7 +2023,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN86"/>
+  <dimension ref="A1:AN90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2003,7 +2033,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="57.0859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="23.30859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="27.47265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -4459,16 +4489,16 @@
         <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4497,25 +4527,23 @@
         <v>201</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="AE22" t="s" s="2">
         <v>213</v>
@@ -4533,16 +4561,16 @@
         <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4550,7 +4578,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4576,10 +4604,10 @@
         <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4630,7 +4658,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4648,7 +4676,7 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -4662,7 +4690,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4688,10 +4716,10 @@
         <v>131</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>163</v>
@@ -4735,7 +4763,7 @@
         <v>134</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>77</v>
@@ -4744,7 +4772,7 @@
         <v>135</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4762,7 +4790,7 @@
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4776,18 +4804,20 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="B25" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="C25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F25" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="F25" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>77</v>
@@ -4799,20 +4829,18 @@
         <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4836,13 +4864,13 @@
         <v>77</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>77</v>
+        <v>218</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>77</v>
+        <v>219</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>77</v>
@@ -4860,13 +4888,13 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>77</v>
@@ -4875,16 +4903,16 @@
         <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>77</v>
+        <v>222</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>77</v>
+        <v>224</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
@@ -4892,7 +4920,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4918,10 +4946,10 @@
         <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4972,7 +5000,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -4990,7 +5018,7 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
@@ -5004,7 +5032,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5030,10 +5058,10 @@
         <v>131</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>163</v>
@@ -5077,7 +5105,7 @@
         <v>134</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>77</v>
@@ -5086,7 +5114,7 @@
         <v>135</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5104,7 +5132,7 @@
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -5118,7 +5146,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5129,7 +5157,7 @@
         <v>86</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>77</v>
@@ -5141,19 +5169,19 @@
         <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>100</v>
+        <v>243</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>77</v>
@@ -5202,13 +5230,13 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>77</v>
@@ -5220,13 +5248,13 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -5234,7 +5262,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5254,20 +5282,18 @@
         <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>77</v>
@@ -5316,7 +5342,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5328,19 +5354,19 @@
         <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>260</v>
+        <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5348,18 +5374,18 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>77</v>
@@ -5368,21 +5394,21 @@
         <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>77</v>
       </c>
@@ -5418,43 +5444,43 @@
         <v>77</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>267</v>
+        <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5462,7 +5488,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5485,17 +5511,19 @@
         <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="N31" t="s" s="2">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -5544,7 +5572,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5562,13 +5590,13 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5576,7 +5604,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5599,20 +5627,18 @@
         <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>276</v>
+        <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>77</v>
       </c>
@@ -5660,7 +5686,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5678,13 +5704,13 @@
         <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5692,7 +5718,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5700,7 +5726,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>86</v>
@@ -5715,19 +5741,17 @@
         <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>77</v>
@@ -5776,7 +5800,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5794,13 +5818,13 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5808,7 +5832,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5831,18 +5855,18 @@
         <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>293</v>
+        <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5890,10 +5914,10 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>86</v>
@@ -5905,16 +5929,16 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>297</v>
+        <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>299</v>
+        <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5922,7 +5946,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5942,19 +5966,23 @@
         <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>88</v>
+        <v>283</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>243</v>
+        <v>284</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>77</v>
       </c>
@@ -6002,7 +6030,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>226</v>
+        <v>288</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -6014,19 +6042,19 @@
         <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>227</v>
+        <v>289</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>77</v>
+        <v>290</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -6034,18 +6062,18 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>77</v>
@@ -6054,21 +6082,23 @@
         <v>77</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>229</v>
+        <v>292</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>230</v>
+        <v>293</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>77</v>
       </c>
@@ -6104,43 +6134,43 @@
         <v>77</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="AC36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>232</v>
+        <v>296</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>227</v>
+        <v>297</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>77</v>
+        <v>298</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -6148,9 +6178,11 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="B37" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="C37" t="s" s="2">
         <v>77</v>
       </c>
@@ -6171,16 +6203,16 @@
         <v>87</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>88</v>
+        <v>300</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>304</v>
+        <v>237</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>305</v>
+        <v>238</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>306</v>
+        <v>239</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6230,31 +6262,31 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>307</v>
+        <v>213</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>308</v>
+        <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>77</v>
+        <v>222</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>129</v>
+        <v>223</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>77</v>
+        <v>224</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
@@ -6262,7 +6294,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6270,7 +6302,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>86</v>
@@ -6285,16 +6317,16 @@
         <v>87</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>100</v>
+        <v>302</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6320,13 +6352,13 @@
         <v>77</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>313</v>
+        <v>77</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>314</v>
+        <v>77</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>315</v>
+        <v>77</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>77</v>
@@ -6344,10 +6376,10 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>86</v>
@@ -6359,16 +6391,16 @@
         <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>77</v>
+        <v>306</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>129</v>
+        <v>307</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>77</v>
+        <v>308</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>77</v>
+        <v>309</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
@@ -6376,7 +6408,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6396,20 +6428,18 @@
         <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>167</v>
+        <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>318</v>
+        <v>240</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>77</v>
@@ -6458,7 +6488,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>321</v>
+        <v>229</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6470,13 +6500,13 @@
         <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>322</v>
+        <v>230</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
@@ -6490,18 +6520,18 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>77</v>
@@ -6510,19 +6540,19 @@
         <v>77</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>324</v>
+        <v>232</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>325</v>
+        <v>233</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>326</v>
+        <v>163</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6560,37 +6590,37 @@
         <v>77</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>327</v>
+        <v>235</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>129</v>
+        <v>230</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6604,7 +6634,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6624,19 +6654,19 @@
         <v>77</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>329</v>
+        <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6686,7 +6716,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6695,22 +6725,22 @@
         <v>86</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>77</v>
+        <v>317</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>332</v>
+        <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>333</v>
+        <v>129</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>334</v>
+        <v>77</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>335</v>
+        <v>77</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>77</v>
@@ -6718,7 +6748,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6729,7 +6759,7 @@
         <v>78</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>77</v>
@@ -6738,19 +6768,19 @@
         <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>337</v>
+        <v>100</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6776,13 +6806,13 @@
         <v>77</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>77</v>
+        <v>322</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>77</v>
+        <v>323</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>77</v>
+        <v>324</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>77</v>
@@ -6800,13 +6830,13 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>77</v>
@@ -6818,10 +6848,10 @@
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>340</v>
+        <v>129</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>334</v>
+        <v>77</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>77</v>
@@ -6832,7 +6862,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6840,7 +6870,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>86</v>
@@ -6855,16 +6885,16 @@
         <v>87</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>342</v>
+        <v>167</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6914,10 +6944,10 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>86</v>
@@ -6929,16 +6959,16 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>346</v>
+        <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>348</v>
+        <v>77</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>349</v>
+        <v>77</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -6946,7 +6976,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6957,7 +6987,7 @@
         <v>78</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>77</v>
@@ -6969,15 +6999,17 @@
         <v>87</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>351</v>
+        <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>77</v>
@@ -7026,13 +7058,13 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>77</v>
@@ -7041,16 +7073,16 @@
         <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>354</v>
+        <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>355</v>
+        <v>129</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>356</v>
+        <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>357</v>
+        <v>77</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>77</v>
@@ -7058,7 +7090,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7081,15 +7113,17 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>88</v>
+        <v>338</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>243</v>
+        <v>339</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>77</v>
@@ -7138,7 +7172,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>226</v>
+        <v>337</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7150,19 +7184,19 @@
         <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>77</v>
+        <v>341</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>227</v>
+        <v>342</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>77</v>
+        <v>343</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>77</v>
+        <v>344</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -7170,11 +7204,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7193,16 +7227,16 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>131</v>
+        <v>346</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>229</v>
+        <v>347</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>230</v>
+        <v>348</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>163</v>
+        <v>305</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7252,7 +7286,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>232</v>
+        <v>345</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7264,16 +7298,16 @@
         <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>227</v>
+        <v>349</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>77</v>
+        <v>343</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>77</v>
@@ -7284,43 +7318,41 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>361</v>
+        <v>77</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>131</v>
+        <v>351</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>77</v>
       </c>
@@ -7368,31 +7400,31 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>77</v>
+        <v>355</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>129</v>
+        <v>356</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>77</v>
+        <v>357</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>77</v>
+        <v>358</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>77</v>
@@ -7400,7 +7432,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7411,7 +7443,7 @@
         <v>78</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>77</v>
@@ -7420,16 +7452,16 @@
         <v>77</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>197</v>
+        <v>360</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7456,13 +7488,13 @@
         <v>77</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>368</v>
+        <v>77</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>369</v>
+        <v>77</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>77</v>
@@ -7480,13 +7512,13 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>77</v>
@@ -7495,16 +7527,16 @@
         <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>77</v>
+        <v>365</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>77</v>
+        <v>366</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7512,7 +7544,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7520,7 +7552,7 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>86</v>
@@ -7532,16 +7564,16 @@
         <v>77</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>373</v>
+        <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>374</v>
+        <v>240</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>375</v>
+        <v>241</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7592,10 +7624,10 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>372</v>
+        <v>229</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>86</v>
@@ -7604,13 +7636,13 @@
         <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>376</v>
+        <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>377</v>
+        <v>230</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7624,11 +7656,11 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7647,15 +7679,17 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>197</v>
+        <v>131</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>379</v>
+        <v>232</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>77</v>
@@ -7680,13 +7714,13 @@
         <v>77</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>381</v>
+        <v>77</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>382</v>
+        <v>77</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>77</v>
@@ -7704,7 +7738,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>378</v>
+        <v>235</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7716,19 +7750,19 @@
         <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>383</v>
+        <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>384</v>
+        <v>230</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>385</v>
+        <v>77</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>77</v>
@@ -7736,11 +7770,11 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>77</v>
+        <v>370</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7753,24 +7787,26 @@
         <v>77</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>387</v>
+        <v>131</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>77</v>
       </c>
@@ -7818,7 +7854,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7830,27 +7866,27 @@
         <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>391</v>
+        <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>392</v>
+        <v>129</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>393</v>
+        <v>77</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>394</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7873,20 +7909,16 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>396</v>
+        <v>197</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>77</v>
       </c>
@@ -7910,13 +7942,13 @@
         <v>77</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>77</v>
+        <v>377</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>77</v>
+        <v>378</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>77</v>
@@ -7934,7 +7966,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7949,16 +7981,16 @@
         <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>403</v>
+        <v>77</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>77</v>
@@ -7966,7 +7998,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>404</v>
+        <v>381</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7974,10 +8006,10 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>77</v>
@@ -7986,20 +8018,18 @@
         <v>77</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>77</v>
@@ -8048,13 +8078,13 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>404</v>
+        <v>381</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>77</v>
@@ -8063,16 +8093,16 @@
         <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>409</v>
+        <v>77</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>77</v>
@@ -8080,7 +8110,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>410</v>
+        <v>387</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8103,17 +8133,15 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>411</v>
+        <v>197</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>77</v>
@@ -8138,13 +8166,13 @@
         <v>77</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>77</v>
+        <v>390</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>77</v>
+        <v>391</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>77</v>
@@ -8162,7 +8190,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>410</v>
+        <v>387</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8177,16 +8205,16 @@
         <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>415</v>
+        <v>392</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>416</v>
+        <v>393</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>77</v>
+        <v>394</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
@@ -8194,7 +8222,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8205,7 +8233,7 @@
         <v>78</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>77</v>
@@ -8217,15 +8245,17 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>351</v>
+        <v>396</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>77</v>
@@ -8274,39 +8304,39 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>420</v>
+        <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>77</v>
+        <v>400</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>77</v>
+        <v>402</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>77</v>
+        <v>403</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8329,16 +8359,20 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>88</v>
+        <v>405</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>243</v>
+        <v>406</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>77</v>
       </c>
@@ -8386,7 +8420,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>226</v>
+        <v>404</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8398,19 +8432,19 @@
         <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>77</v>
+        <v>410</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>227</v>
+        <v>411</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>77</v>
+        <v>412</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>77</v>
@@ -8418,7 +8452,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8441,15 +8475,17 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>131</v>
+        <v>414</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>416</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>77</v>
@@ -8486,17 +8522,19 @@
         <v>77</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AB57" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>232</v>
+        <v>413</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8508,19 +8546,19 @@
         <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>77</v>
+        <v>417</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>77</v>
+        <v>418</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>77</v>
@@ -8528,11 +8566,9 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>424</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
         <v>77</v>
       </c>
@@ -8553,15 +8589,17 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>77</v>
@@ -8610,7 +8648,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>232</v>
+        <v>419</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8619,16 +8657,16 @@
         <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>77</v>
+        <v>424</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>77</v>
+        <v>425</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8642,11 +8680,9 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>428</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8655,7 +8691,7 @@
         <v>78</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>77</v>
@@ -8667,13 +8703,13 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>429</v>
+        <v>360</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8724,25 +8760,25 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>232</v>
+        <v>426</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>137</v>
+        <v>429</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>77</v>
+        <v>430</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -8756,11 +8792,9 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>432</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
         <v>77</v>
       </c>
@@ -8769,7 +8803,7 @@
         <v>78</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>77</v>
@@ -8781,13 +8815,13 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>433</v>
+        <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>434</v>
+        <v>240</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>435</v>
+        <v>241</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8838,25 +8872,25 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>77</v>
+        <v>230</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
@@ -8870,11 +8904,11 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>361</v>
+        <v>77</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8887,26 +8921,22 @@
         <v>77</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
         <v>131</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>362</v>
+        <v>132</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>77</v>
       </c>
@@ -8942,19 +8972,17 @@
         <v>77</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AB61" s="2"/>
       <c r="AC61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>364</v>
+        <v>235</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -8972,7 +9000,7 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -8986,9 +9014,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="B62" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="C62" t="s" s="2">
         <v>77</v>
       </c>
@@ -8997,7 +9027,7 @@
         <v>78</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>77</v>
@@ -9009,13 +9039,13 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>88</v>
+        <v>434</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9066,25 +9096,25 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>437</v>
+        <v>235</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>440</v>
+        <v>77</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
@@ -9098,9 +9128,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="B63" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>437</v>
+      </c>
       <c r="C63" t="s" s="2">
         <v>77</v>
       </c>
@@ -9109,7 +9141,7 @@
         <v>78</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>77</v>
@@ -9121,17 +9153,15 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>197</v>
+        <v>438</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>444</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>77</v>
@@ -9156,13 +9186,13 @@
         <v>77</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>445</v>
+        <v>77</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>446</v>
+        <v>77</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>77</v>
@@ -9180,31 +9210,31 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>441</v>
+        <v>235</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>447</v>
+        <v>77</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>448</v>
+        <v>77</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>77</v>
@@ -9212,9 +9242,11 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="B64" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>441</v>
+      </c>
       <c r="C64" t="s" s="2">
         <v>77</v>
       </c>
@@ -9223,7 +9255,7 @@
         <v>78</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>77</v>
@@ -9235,13 +9267,13 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>88</v>
+        <v>442</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>243</v>
+        <v>443</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>244</v>
+        <v>444</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9292,25 +9324,25 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>227</v>
+        <v>77</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
@@ -9324,11 +9356,11 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>160</v>
+        <v>370</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9341,24 +9373,26 @@
         <v>77</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J65" t="s" s="2">
         <v>131</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>229</v>
+        <v>371</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>230</v>
+        <v>372</v>
       </c>
       <c r="M65" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="N65" s="2"/>
+      <c r="N65" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>77</v>
       </c>
@@ -9394,19 +9428,19 @@
         <v>77</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="AC65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>232</v>
+        <v>373</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9424,7 +9458,7 @@
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>227</v>
+        <v>129</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
@@ -9438,11 +9472,9 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>451</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
         <v>77</v>
       </c>
@@ -9451,7 +9483,7 @@
         <v>78</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>77</v>
@@ -9463,13 +9495,13 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>452</v>
+        <v>88</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9520,25 +9552,25 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>232</v>
+        <v>446</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>77</v>
+        <v>449</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
@@ -9552,7 +9584,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9563,7 +9595,7 @@
         <v>78</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>77</v>
@@ -9572,23 +9604,21 @@
         <v>77</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>77</v>
       </c>
@@ -9612,13 +9642,13 @@
         <v>77</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>77</v>
+        <v>454</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>77</v>
+        <v>455</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>77</v>
@@ -9636,13 +9666,13 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>239</v>
+        <v>450</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>77</v>
@@ -9654,13 +9684,13 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>240</v>
+        <v>456</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>241</v>
+        <v>457</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>77</v>
@@ -9668,7 +9698,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9688,23 +9718,19 @@
         <v>77</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>77</v>
       </c>
@@ -9752,7 +9778,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>289</v>
+        <v>229</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -9764,19 +9790,19 @@
         <v>77</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>290</v>
+        <v>230</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>291</v>
+        <v>77</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>77</v>
@@ -9784,18 +9810,18 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>77</v>
@@ -9807,16 +9833,16 @@
         <v>77</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>197</v>
+        <v>131</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>461</v>
+        <v>232</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>462</v>
+        <v>233</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9842,55 +9868,55 @@
         <v>77</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>463</v>
+        <v>77</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>464</v>
+        <v>77</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="AC69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>460</v>
+        <v>235</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>465</v>
+        <v>230</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>466</v>
+        <v>77</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>77</v>
@@ -9898,9 +9924,11 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="B70" s="2"/>
+        <v>459</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>460</v>
+      </c>
       <c r="C70" t="s" s="2">
         <v>77</v>
       </c>
@@ -9909,7 +9937,7 @@
         <v>78</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>77</v>
@@ -9921,13 +9949,13 @@
         <v>77</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>88</v>
+        <v>461</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>243</v>
+        <v>462</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>244</v>
+        <v>463</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9978,25 +10006,25 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>227</v>
+        <v>77</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
@@ -10010,11 +10038,11 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -10030,21 +10058,23 @@
         <v>77</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>131</v>
+        <v>243</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>229</v>
+        <v>465</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>230</v>
+        <v>466</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>467</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>77</v>
       </c>
@@ -10080,19 +10110,19 @@
         <v>77</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="AC71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD71" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10104,19 +10134,19 @@
         <v>77</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>77</v>
+        <v>250</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>77</v>
@@ -10126,9 +10156,7 @@
       <c r="A72" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="B72" t="s" s="2">
-        <v>469</v>
-      </c>
+      <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
         <v>77</v>
       </c>
@@ -10137,7 +10165,7 @@
         <v>78</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>77</v>
@@ -10146,19 +10174,23 @@
         <v>77</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>470</v>
+        <v>88</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>471</v>
+        <v>292</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>77</v>
       </c>
@@ -10206,31 +10238,31 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>232</v>
+        <v>296</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>77</v>
+        <v>297</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>77</v>
+        <v>298</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>77</v>
@@ -10238,7 +10270,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10249,7 +10281,7 @@
         <v>78</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>77</v>
@@ -10258,23 +10290,21 @@
         <v>77</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>77</v>
       </c>
@@ -10298,13 +10328,13 @@
         <v>77</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>77</v>
+        <v>472</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>77</v>
+        <v>473</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>77</v>
@@ -10322,13 +10352,13 @@
         <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>239</v>
+        <v>469</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>77</v>
@@ -10340,13 +10370,13 @@
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>240</v>
+        <v>474</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>241</v>
+        <v>475</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>77</v>
@@ -10354,7 +10384,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10374,23 +10404,19 @@
         <v>77</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J74" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>77</v>
       </c>
@@ -10438,7 +10464,7 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>289</v>
+        <v>229</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
@@ -10450,19 +10476,19 @@
         <v>77</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>290</v>
+        <v>230</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>291</v>
+        <v>77</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>77</v>
@@ -10470,18 +10496,18 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>77</v>
@@ -10493,16 +10519,16 @@
         <v>77</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>197</v>
+        <v>131</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>476</v>
+        <v>232</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>477</v>
+        <v>233</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>478</v>
+        <v>163</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10528,55 +10554,55 @@
         <v>77</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>479</v>
+        <v>77</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>480</v>
+        <v>77</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="AC75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD75" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>475</v>
+        <v>235</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>481</v>
+        <v>230</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>482</v>
+        <v>77</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>77</v>
@@ -10584,9 +10610,11 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="B76" s="2"/>
+        <v>477</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>478</v>
+      </c>
       <c r="C76" t="s" s="2">
         <v>77</v>
       </c>
@@ -10595,7 +10623,7 @@
         <v>78</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>77</v>
@@ -10607,13 +10635,13 @@
         <v>77</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>88</v>
+        <v>479</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>243</v>
+        <v>480</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>244</v>
+        <v>481</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10664,25 +10692,25 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>227</v>
+        <v>77</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
@@ -10696,11 +10724,11 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10716,21 +10744,23 @@
         <v>77</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>131</v>
+        <v>243</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>229</v>
+        <v>465</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>230</v>
+        <v>466</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N77" s="2"/>
+        <v>467</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="O77" t="s" s="2">
         <v>77</v>
       </c>
@@ -10766,19 +10796,19 @@
         <v>77</v>
       </c>
       <c r="AA77" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="AC77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
@@ -10790,19 +10820,19 @@
         <v>77</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>77</v>
+        <v>250</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>77</v>
@@ -10810,11 +10840,9 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>485</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
         <v>77</v>
       </c>
@@ -10823,7 +10851,7 @@
         <v>78</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>77</v>
@@ -10832,19 +10860,23 @@
         <v>77</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>486</v>
+        <v>88</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>487</v>
+        <v>292</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="O78" t="s" s="2">
         <v>77</v>
       </c>
@@ -10892,31 +10924,31 @@
         <v>77</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>232</v>
+        <v>296</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>77</v>
+        <v>297</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>77</v>
+        <v>298</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>77</v>
@@ -10924,7 +10956,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10935,7 +10967,7 @@
         <v>78</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>77</v>
@@ -10944,23 +10976,21 @@
         <v>77</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>456</v>
+        <v>485</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>457</v>
+        <v>486</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>77</v>
       </c>
@@ -10984,13 +11014,13 @@
         <v>77</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>77</v>
+        <v>488</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>77</v>
+        <v>489</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>77</v>
@@ -11008,13 +11038,13 @@
         <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>239</v>
+        <v>484</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>77</v>
@@ -11026,13 +11056,13 @@
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>240</v>
+        <v>490</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>241</v>
+        <v>491</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>77</v>
@@ -11040,7 +11070,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11060,23 +11090,19 @@
         <v>77</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J80" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>77</v>
       </c>
@@ -11124,7 +11150,7 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>289</v>
+        <v>229</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
@@ -11136,19 +11162,19 @@
         <v>77</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>290</v>
+        <v>230</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>291</v>
+        <v>77</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>77</v>
@@ -11156,18 +11182,18 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>77</v>
@@ -11179,16 +11205,16 @@
         <v>77</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>492</v>
+        <v>131</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>493</v>
+        <v>232</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>494</v>
+        <v>233</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>495</v>
+        <v>163</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11226,43 +11252,43 @@
         <v>77</v>
       </c>
       <c r="AA81" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="AC81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD81" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>491</v>
+        <v>235</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>496</v>
+        <v>230</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>497</v>
+        <v>77</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>77</v>
@@ -11270,9 +11296,11 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="B82" s="2"/>
+        <v>493</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>494</v>
+      </c>
       <c r="C82" t="s" s="2">
         <v>77</v>
       </c>
@@ -11281,7 +11309,7 @@
         <v>78</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>77</v>
@@ -11293,17 +11321,15 @@
         <v>77</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>502</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="M82" s="2"/>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>77</v>
@@ -11352,31 +11378,31 @@
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>498</v>
+        <v>235</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>503</v>
+        <v>77</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>504</v>
+        <v>77</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>77</v>
@@ -11384,7 +11410,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11395,7 +11421,7 @@
         <v>78</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>77</v>
@@ -11404,19 +11430,23 @@
         <v>77</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>88</v>
+        <v>243</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>243</v>
+        <v>465</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
+        <v>466</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="O83" t="s" s="2">
         <v>77</v>
       </c>
@@ -11464,31 +11494,31 @@
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>77</v>
+        <v>250</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>77</v>
@@ -11496,18 +11526,18 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>77</v>
@@ -11516,21 +11546,23 @@
         <v>77</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>229</v>
+        <v>292</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>230</v>
+        <v>293</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N84" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="O84" t="s" s="2">
         <v>77</v>
       </c>
@@ -11566,43 +11598,43 @@
         <v>77</v>
       </c>
       <c r="AA84" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="AC84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD84" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>232</v>
+        <v>296</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>227</v>
+        <v>297</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>77</v>
+        <v>298</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>77</v>
@@ -11610,11 +11642,9 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>507</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
         <v>77</v>
       </c>
@@ -11623,7 +11653,7 @@
         <v>78</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>77</v>
@@ -11635,15 +11665,17 @@
         <v>77</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="M85" s="2"/>
+        <v>503</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>504</v>
+      </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>77</v>
@@ -11692,31 +11724,31 @@
         <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>232</v>
+        <v>500</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>77</v>
+        <v>505</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>77</v>
+        <v>506</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>77</v>
@@ -11724,7 +11756,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11735,7 +11767,7 @@
         <v>78</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>77</v>
@@ -11747,16 +11779,16 @@
         <v>77</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -11806,13 +11838,13 @@
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>77</v>
@@ -11824,15 +11856,469 @@
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="B89" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="AL86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN86" t="s" s="2">
+      <c r="C89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN90" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/jpcore-r4/feature/swg5-add_examples/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/feature/swg5-add_examples/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3273" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3202" uniqueCount="522">
   <si>
     <t>Property</t>
   </si>
@@ -693,26 +693,16 @@
   </si>
   <si>
     <t>CodeableConcept
-Reference(Medication)</t>
-  </si>
-  <si>
-    <t>What was administered　医薬品</t>
-  </si>
-  <si>
-    <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.
-投与された薬剤を識別する。既知の薬のリストから薬を識別するコード情報を設定する。</t>
-  </si>
-  <si>
-    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.
-【JP-CORE】
-ひとつのtext要素と、複数のcoding 要素を記述できる。処方オーダ時に選択または入力し、実際に処方箋に印字される文字列を必ずtext要素に格納した上で、それをコード化した情報を1個以上のcoding 要素に記述する。
-厚生労働省標準であるHOT9コード（販社指定が不要な場合にはHOT7コード）または広く流通しているYJコードを用いるか、一般名処方の場合には厚生労働省保険局一般名処方マスタのコードを使用して、Coding要素（コードsystemを識別するURI、医薬品のコード、そのコード表における医薬品の名称の3つからなる）で記述する。
--なお、上記のいずれの標準的コードも付番されていない医薬品や医療材料の場合には、薬機法の下で使用されているGS1標準の識別コードであるGTIN(Global Trade Item Number)の調剤包装単位（最少包装単位、個別包装単位）14桁を使用する。
--ひとつの処方薬、医療材料を複数のコード体系のコードで記述してもよく、その場合にcoding 要素を繰り返して記述する。-ただし、ひとつの処方薬を複数のコードで繰り返し記述する場合には、それらのコードが指し示す処方薬、医療材料は当然同一でなければならない。-また、処方を発行した医療機関内でのデータ利用のために、医療機関固有コード体系によるコード（ハウスコード、ローカルコード）の記述を含めてもよいが、その場合でも上述したいずれかの標準コードを同時に記述することが必要である。</t>
+Reference</t>
+  </si>
+  <si>
+    <t>What was administered</t>
+  </si>
+  <si>
+    <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
+  </si>
+  <si>
+    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
   </si>
   <si>
     <t>Codes identifying substance or product that can be administered.</t>
@@ -740,14 +730,19 @@
     <t>RXA-5-Administered Code</t>
   </si>
   <si>
+    <t>medicationCodeableConcept</t>
+  </si>
+  <si>
+    <t>処方する製剤を表すコード。</t>
+  </si>
+  <si>
     <t>MedicationAdministration.medication[x].id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing 要素間参照用の一意のID</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.
-リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない任意の文字列値にすることができる。</t>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -769,24 +764,6 @@
   </si>
   <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>medicationCodeableConcept</t>
-  </si>
-  <si>
-    <t>What was administered</t>
-  </si>
-  <si>
-    <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
-  </si>
-  <si>
-    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>MedicationAdministration.medication[x].coding</t>
@@ -2023,7 +2000,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN90"/>
+  <dimension ref="A1:AN88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4578,9 +4555,11 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
         <v>77</v>
       </c>
@@ -4598,18 +4577,20 @@
         <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>88</v>
+        <v>197</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>77</v>
@@ -4634,13 +4615,13 @@
         <v>77</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>77</v>
+        <v>227</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>77</v>
+        <v>219</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>77</v>
@@ -4658,10 +4639,10 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>86</v>
@@ -4670,19 +4651,19 @@
         <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>77</v>
+        <v>222</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>77</v>
+        <v>224</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -4690,18 +4671,18 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>77</v>
@@ -4713,17 +4694,15 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>77</v>
@@ -4760,37 +4739,37 @@
         <v>77</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>234</v>
+        <v>77</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4804,20 +4783,18 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>77</v>
@@ -4826,19 +4803,19 @@
         <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>197</v>
+        <v>131</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>239</v>
+        <v>163</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4864,55 +4841,55 @@
         <v>77</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>218</v>
+        <v>77</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>219</v>
+        <v>77</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>222</v>
+        <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>224</v>
+        <v>77</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>225</v>
+        <v>77</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
@@ -4920,7 +4897,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4928,10 +4905,10 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>77</v>
@@ -4940,10 +4917,10 @@
         <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>88</v>
+        <v>239</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>240</v>
@@ -4951,8 +4928,12 @@
       <c r="L26" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+      <c r="M26" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>77</v>
       </c>
@@ -5000,31 +4981,31 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>77</v>
+        <v>246</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -5032,18 +5013,18 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>77</v>
@@ -5055,17 +5036,15 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>77</v>
@@ -5102,37 +5081,37 @@
         <v>77</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>234</v>
+        <v>77</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -5146,15 +5125,15 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>79</v>
@@ -5166,23 +5145,21 @@
         <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>243</v>
+        <v>131</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>77</v>
       </c>
@@ -5218,19 +5195,19 @@
         <v>77</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5242,19 +5219,19 @@
         <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -5262,7 +5239,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5270,7 +5247,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>86</v>
@@ -5282,19 +5259,23 @@
         <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>77</v>
       </c>
@@ -5342,7 +5323,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5354,19 +5335,19 @@
         <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>77</v>
+        <v>256</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5374,18 +5355,18 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>77</v>
@@ -5394,19 +5375,19 @@
         <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>163</v>
+        <v>260</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5444,43 +5425,43 @@
         <v>77</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>234</v>
+        <v>77</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>77</v>
+        <v>263</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5488,7 +5469,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5511,19 +5492,17 @@
         <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -5572,7 +5551,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5590,13 +5569,13 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5604,7 +5583,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5612,7 +5591,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>86</v>
@@ -5630,15 +5609,15 @@
         <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>77</v>
       </c>
@@ -5686,7 +5665,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5704,13 +5683,13 @@
         <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5718,7 +5697,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5726,7 +5705,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>86</v>
@@ -5741,17 +5720,19 @@
         <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>106</v>
+        <v>279</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="N33" t="s" s="2">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>77</v>
@@ -5800,7 +5781,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5818,13 +5799,13 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5832,7 +5813,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5840,7 +5821,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>86</v>
@@ -5858,14 +5839,16 @@
         <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="N34" t="s" s="2">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>77</v>
@@ -5914,7 +5897,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5932,13 +5915,13 @@
         <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5946,9 +5929,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="B35" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="C35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5969,20 +5954,18 @@
         <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>284</v>
+        <v>215</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>285</v>
+        <v>216</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>77</v>
       </c>
@@ -6030,10 +6013,10 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>288</v>
+        <v>213</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>86</v>
@@ -6045,16 +6028,16 @@
         <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>77</v>
+        <v>222</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>289</v>
+        <v>223</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>77</v>
+        <v>224</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>290</v>
+        <v>225</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -6062,7 +6045,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6070,7 +6053,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>86</v>
@@ -6085,20 +6068,18 @@
         <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>88</v>
+        <v>298</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>77</v>
       </c>
@@ -6146,10 +6127,10 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>86</v>
@@ -6161,16 +6142,16 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>77</v>
+        <v>302</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>77</v>
+        <v>304</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -6178,11 +6159,9 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
         <v>77</v>
       </c>
@@ -6200,20 +6179,18 @@
         <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>300</v>
+        <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>77</v>
@@ -6262,10 +6239,10 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>86</v>
@@ -6274,19 +6251,19 @@
         <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>222</v>
+        <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>224</v>
+        <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>225</v>
+        <v>77</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
@@ -6294,18 +6271,18 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>77</v>
@@ -6314,19 +6291,19 @@
         <v>77</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>302</v>
+        <v>131</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>303</v>
+        <v>234</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>304</v>
+        <v>235</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>305</v>
+        <v>163</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6364,43 +6341,43 @@
         <v>77</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>301</v>
+        <v>237</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>306</v>
+        <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>307</v>
+        <v>232</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>308</v>
+        <v>77</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>309</v>
+        <v>77</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
@@ -6408,7 +6385,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6428,18 +6405,20 @@
         <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>240</v>
+        <v>309</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>77</v>
@@ -6488,7 +6467,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>229</v>
+        <v>312</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6497,16 +6476,16 @@
         <v>86</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>77</v>
+        <v>313</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>230</v>
+        <v>129</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
@@ -6520,18 +6499,18 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>77</v>
@@ -6540,19 +6519,19 @@
         <v>77</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>232</v>
+        <v>315</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>233</v>
+        <v>316</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>163</v>
+        <v>317</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6578,49 +6557,49 @@
         <v>77</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>77</v>
+        <v>318</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>77</v>
+        <v>319</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>77</v>
+        <v>320</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>234</v>
+        <v>77</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>235</v>
+        <v>321</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>230</v>
+        <v>129</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6634,7 +6613,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6657,16 +6636,16 @@
         <v>87</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>88</v>
+        <v>167</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6716,7 +6695,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6725,7 +6704,7 @@
         <v>86</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>317</v>
+        <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>98</v>
@@ -6734,7 +6713,7 @@
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>129</v>
+        <v>327</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6748,7 +6727,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6771,16 +6750,16 @@
         <v>87</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6806,13 +6785,13 @@
         <v>77</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>322</v>
+        <v>77</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>323</v>
+        <v>77</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>324</v>
+        <v>77</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>77</v>
@@ -6830,7 +6809,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6862,7 +6841,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6882,19 +6861,19 @@
         <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>167</v>
+        <v>334</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>329</v>
+        <v>301</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6944,7 +6923,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6959,16 +6938,16 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>77</v>
+        <v>337</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>77</v>
+        <v>339</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>77</v>
+        <v>340</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -6976,7 +6955,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6987,7 +6966,7 @@
         <v>78</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>77</v>
@@ -6996,19 +6975,19 @@
         <v>77</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>88</v>
+        <v>342</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>335</v>
+        <v>301</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7058,13 +7037,13 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>77</v>
@@ -7076,10 +7055,10 @@
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>129</v>
+        <v>345</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>77</v>
+        <v>339</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
@@ -7090,7 +7069,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7098,7 +7077,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>86</v>
@@ -7110,19 +7089,19 @@
         <v>77</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7172,10 +7151,10 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>86</v>
@@ -7187,16 +7166,16 @@
         <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -7204,7 +7183,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7224,20 +7203,18 @@
         <v>77</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>77</v>
@@ -7286,7 +7263,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7301,16 +7278,16 @@
         <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>77</v>
+        <v>359</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>77</v>
+        <v>362</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>77</v>
@@ -7318,7 +7295,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7326,7 +7303,7 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>86</v>
@@ -7338,20 +7315,18 @@
         <v>77</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>351</v>
+        <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>352</v>
+        <v>229</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>77</v>
@@ -7400,10 +7375,10 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>350</v>
+        <v>231</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>86</v>
@@ -7412,19 +7387,19 @@
         <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>355</v>
+        <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>356</v>
+        <v>232</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>357</v>
+        <v>77</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>358</v>
+        <v>77</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>77</v>
@@ -7432,11 +7407,11 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7452,18 +7427,20 @@
         <v>77</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>360</v>
+        <v>131</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>361</v>
+        <v>234</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>77</v>
@@ -7512,7 +7489,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>359</v>
+        <v>237</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7524,19 +7501,19 @@
         <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>363</v>
+        <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>364</v>
+        <v>232</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>365</v>
+        <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>366</v>
+        <v>77</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7544,39 +7521,43 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>77</v>
+        <v>366</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>240</v>
+        <v>367</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7624,25 +7605,25 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>229</v>
+        <v>369</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>230</v>
+        <v>129</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7656,18 +7637,18 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>77</v>
@@ -7679,17 +7660,15 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>131</v>
+        <v>197</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>232</v>
+        <v>371</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>77</v>
@@ -7714,13 +7693,13 @@
         <v>77</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>77</v>
+        <v>373</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>77</v>
+        <v>374</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>77</v>
@@ -7738,25 +7717,25 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>235</v>
+        <v>370</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>77</v>
+        <v>375</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>230</v>
+        <v>376</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7770,43 +7749,39 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>370</v>
+        <v>77</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>131</v>
+        <v>378</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>77</v>
       </c>
@@ -7854,25 +7829,25 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>77</v>
+        <v>381</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>129</v>
+        <v>382</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -7886,7 +7861,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7897,7 +7872,7 @@
         <v>78</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>77</v>
@@ -7912,10 +7887,10 @@
         <v>197</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7945,10 +7920,10 @@
         <v>201</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>77</v>
@@ -7966,13 +7941,13 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>77</v>
@@ -7981,16 +7956,16 @@
         <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>77</v>
+        <v>390</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>77</v>
@@ -7998,7 +7973,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8006,10 +7981,10 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>77</v>
@@ -8018,18 +7993,20 @@
         <v>77</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>77</v>
@@ -8078,13 +8055,13 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>77</v>
@@ -8093,24 +8070,24 @@
         <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>77</v>
+        <v>398</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>77</v>
+        <v>399</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8121,7 +8098,7 @@
         <v>78</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>77</v>
@@ -8133,16 +8110,20 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>197</v>
+        <v>401</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
+        <v>403</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>77</v>
       </c>
@@ -8166,13 +8147,13 @@
         <v>77</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>390</v>
+        <v>77</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>391</v>
+        <v>77</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>77</v>
@@ -8190,13 +8171,13 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>77</v>
@@ -8205,16 +8186,16 @@
         <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
@@ -8222,7 +8203,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8245,16 +8226,16 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>399</v>
+        <v>301</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8304,7 +8285,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8319,24 +8300,24 @@
         <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>400</v>
+        <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>402</v>
+        <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>77</v>
+        <v>414</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>403</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8347,7 +8328,7 @@
         <v>78</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>77</v>
@@ -8359,20 +8340,18 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>409</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>77</v>
       </c>
@@ -8420,13 +8399,13 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>77</v>
@@ -8435,16 +8414,16 @@
         <v>98</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>412</v>
+        <v>77</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>77</v>
@@ -8452,7 +8431,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8463,7 +8442,7 @@
         <v>78</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>77</v>
@@ -8475,17 +8454,15 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>414</v>
+        <v>356</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>77</v>
@@ -8534,31 +8511,31 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>98</v>
+        <v>425</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>418</v>
+        <v>77</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>77</v>
@@ -8566,7 +8543,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8577,7 +8554,7 @@
         <v>78</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>77</v>
@@ -8589,17 +8566,15 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>420</v>
+        <v>88</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>421</v>
+        <v>229</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>77</v>
@@ -8648,25 +8623,25 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>419</v>
+        <v>231</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>424</v>
+        <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>425</v>
+        <v>232</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8680,7 +8655,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8691,7 +8666,7 @@
         <v>78</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>77</v>
@@ -8703,13 +8678,13 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>360</v>
+        <v>131</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>427</v>
+        <v>132</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>428</v>
+        <v>133</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8748,37 +8723,35 @@
         <v>77</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AB59" s="2"/>
       <c r="AC59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>426</v>
+        <v>237</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>429</v>
+        <v>137</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>430</v>
+        <v>77</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -8792,9 +8765,11 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="B60" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="C60" t="s" s="2">
         <v>77</v>
       </c>
@@ -8803,7 +8778,7 @@
         <v>78</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>77</v>
@@ -8815,13 +8790,13 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>88</v>
+        <v>430</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>240</v>
+        <v>431</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>241</v>
+        <v>432</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8872,25 +8847,25 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>230</v>
+        <v>77</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
@@ -8904,9 +8879,11 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="B61" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="C61" t="s" s="2">
         <v>77</v>
       </c>
@@ -8927,13 +8904,13 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>131</v>
+        <v>434</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>132</v>
+        <v>435</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>133</v>
+        <v>436</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8972,17 +8949,19 @@
         <v>77</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AB61" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -8991,7 +8970,7 @@
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>137</v>
@@ -9014,10 +8993,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>77</v>
@@ -9039,13 +9018,13 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9096,7 +9075,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9128,13 +9107,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>437</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>77</v>
+        <v>366</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9147,22 +9124,26 @@
         <v>77</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>438</v>
+        <v>131</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>439</v>
+        <v>367</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>77</v>
       </c>
@@ -9210,7 +9191,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>235</v>
+        <v>369</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9219,7 +9200,7 @@
         <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>137</v>
@@ -9228,7 +9209,7 @@
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
@@ -9242,11 +9223,9 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>441</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
         <v>77</v>
       </c>
@@ -9255,7 +9234,7 @@
         <v>78</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>77</v>
@@ -9267,7 +9246,7 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>442</v>
+        <v>88</v>
       </c>
       <c r="K64" t="s" s="2">
         <v>443</v>
@@ -9324,25 +9303,25 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>235</v>
+        <v>442</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>77</v>
+        <v>445</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
@@ -9356,43 +9335,41 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>370</v>
+        <v>77</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>131</v>
+        <v>197</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>371</v>
+        <v>447</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>372</v>
+        <v>448</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>77</v>
       </c>
@@ -9416,13 +9393,13 @@
         <v>77</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>77</v>
+        <v>450</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>77</v>
+        <v>451</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>77</v>
@@ -9440,31 +9417,31 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>373</v>
+        <v>446</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>129</v>
+        <v>452</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>77</v>
+        <v>453</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>77</v>
@@ -9472,7 +9449,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9498,10 +9475,10 @@
         <v>88</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>447</v>
+        <v>229</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>448</v>
+        <v>230</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9552,7 +9529,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>446</v>
+        <v>231</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9564,13 +9541,13 @@
         <v>77</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>449</v>
+        <v>232</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
@@ -9584,18 +9561,18 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>77</v>
@@ -9607,16 +9584,16 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>197</v>
+        <v>131</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>451</v>
+        <v>234</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>452</v>
+        <v>235</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>453</v>
+        <v>163</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9642,55 +9619,55 @@
         <v>77</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>454</v>
+        <v>77</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>455</v>
+        <v>77</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="AC67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>450</v>
+        <v>237</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>456</v>
+        <v>232</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>457</v>
+        <v>77</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>77</v>
@@ -9698,9 +9675,11 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="B68" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="C68" t="s" s="2">
         <v>77</v>
       </c>
@@ -9709,7 +9688,7 @@
         <v>78</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>77</v>
@@ -9721,13 +9700,13 @@
         <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>88</v>
+        <v>457</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>240</v>
+        <v>458</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>241</v>
+        <v>459</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9778,25 +9757,25 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>230</v>
+        <v>77</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
@@ -9810,11 +9789,11 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9830,21 +9809,23 @@
         <v>77</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>131</v>
+        <v>239</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>232</v>
+        <v>461</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>233</v>
+        <v>462</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>77</v>
       </c>
@@ -9880,19 +9861,19 @@
         <v>77</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>234</v>
+        <v>77</v>
       </c>
       <c r="AC69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -9904,19 +9885,19 @@
         <v>77</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>77</v>
+        <v>246</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>77</v>
@@ -9924,11 +9905,9 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>460</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
         <v>77</v>
       </c>
@@ -9937,7 +9916,7 @@
         <v>78</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>77</v>
@@ -9946,19 +9925,23 @@
         <v>77</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>461</v>
+        <v>88</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>462</v>
+        <v>288</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>77</v>
       </c>
@@ -10006,31 +9989,31 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>235</v>
+        <v>292</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>77</v>
+        <v>293</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>77</v>
+        <v>294</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>77</v>
@@ -10038,7 +10021,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10049,7 +10032,7 @@
         <v>78</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>77</v>
@@ -10058,23 +10041,21 @@
         <v>77</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>243</v>
+        <v>197</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>77</v>
       </c>
@@ -10098,13 +10079,13 @@
         <v>77</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>77</v>
+        <v>468</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>77</v>
+        <v>469</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>77</v>
@@ -10122,13 +10103,13 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>248</v>
+        <v>465</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>77</v>
@@ -10140,13 +10121,13 @@
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>249</v>
+        <v>470</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>250</v>
+        <v>471</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>77</v>
@@ -10154,7 +10135,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10174,23 +10155,19 @@
         <v>77</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J72" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>292</v>
+        <v>229</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>77</v>
       </c>
@@ -10238,7 +10215,7 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>296</v>
+        <v>231</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -10250,19 +10227,19 @@
         <v>77</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>297</v>
+        <v>232</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>298</v>
+        <v>77</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>77</v>
@@ -10270,18 +10247,18 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>77</v>
@@ -10293,16 +10270,16 @@
         <v>77</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>197</v>
+        <v>131</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>470</v>
+        <v>234</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>471</v>
+        <v>235</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10328,55 +10305,55 @@
         <v>77</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>472</v>
+        <v>77</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>473</v>
+        <v>77</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA73" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="AC73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD73" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>469</v>
+        <v>237</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>474</v>
+        <v>232</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>475</v>
+        <v>77</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>77</v>
@@ -10384,9 +10361,11 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="B74" s="2"/>
+        <v>473</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>474</v>
+      </c>
       <c r="C74" t="s" s="2">
         <v>77</v>
       </c>
@@ -10395,7 +10374,7 @@
         <v>78</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>77</v>
@@ -10407,13 +10386,13 @@
         <v>77</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>88</v>
+        <v>475</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>240</v>
+        <v>476</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>241</v>
+        <v>477</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10464,25 +10443,25 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>230</v>
+        <v>77</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
@@ -10496,11 +10475,11 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10516,21 +10495,23 @@
         <v>77</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>131</v>
+        <v>239</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>232</v>
+        <v>461</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>233</v>
+        <v>462</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>77</v>
       </c>
@@ -10566,19 +10547,19 @@
         <v>77</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>234</v>
+        <v>77</v>
       </c>
       <c r="AC75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD75" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
@@ -10590,19 +10571,19 @@
         <v>77</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>77</v>
+        <v>246</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>77</v>
@@ -10610,11 +10591,9 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>478</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
         <v>77</v>
       </c>
@@ -10623,7 +10602,7 @@
         <v>78</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>77</v>
@@ -10632,19 +10611,23 @@
         <v>77</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>479</v>
+        <v>88</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>480</v>
+        <v>288</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="O76" t="s" s="2">
         <v>77</v>
       </c>
@@ -10692,31 +10675,31 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>235</v>
+        <v>292</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>77</v>
+        <v>293</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>77</v>
+        <v>294</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>77</v>
@@ -10724,7 +10707,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10735,7 +10718,7 @@
         <v>78</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>77</v>
@@ -10744,23 +10727,21 @@
         <v>77</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>243</v>
+        <v>197</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>77</v>
       </c>
@@ -10784,13 +10765,13 @@
         <v>77</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>77</v>
+        <v>484</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>77</v>
+        <v>485</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>77</v>
@@ -10808,13 +10789,13 @@
         <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>248</v>
+        <v>480</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>77</v>
@@ -10826,13 +10807,13 @@
         <v>77</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>249</v>
+        <v>486</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>250</v>
+        <v>487</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>77</v>
@@ -10840,7 +10821,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10860,23 +10841,19 @@
         <v>77</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J78" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>292</v>
+        <v>229</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>77</v>
       </c>
@@ -10924,7 +10901,7 @@
         <v>77</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>296</v>
+        <v>231</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>78</v>
@@ -10936,19 +10913,19 @@
         <v>77</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>297</v>
+        <v>232</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>298</v>
+        <v>77</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>77</v>
@@ -10956,18 +10933,18 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>77</v>
@@ -10979,16 +10956,16 @@
         <v>77</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>197</v>
+        <v>131</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>485</v>
+        <v>234</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>486</v>
+        <v>235</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>487</v>
+        <v>163</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -11014,55 +10991,55 @@
         <v>77</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>488</v>
+        <v>77</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>489</v>
+        <v>77</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA79" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="AC79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD79" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>484</v>
+        <v>237</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>490</v>
+        <v>232</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>491</v>
+        <v>77</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>77</v>
@@ -11070,9 +11047,11 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="B80" s="2"/>
+        <v>489</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>490</v>
+      </c>
       <c r="C80" t="s" s="2">
         <v>77</v>
       </c>
@@ -11081,7 +11060,7 @@
         <v>78</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>77</v>
@@ -11093,13 +11072,13 @@
         <v>77</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>88</v>
+        <v>491</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>240</v>
+        <v>492</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>241</v>
+        <v>493</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11150,25 +11129,25 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>230</v>
+        <v>77</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
@@ -11182,11 +11161,11 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -11202,21 +11181,23 @@
         <v>77</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>131</v>
+        <v>239</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>232</v>
+        <v>461</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>233</v>
+        <v>462</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N81" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O81" t="s" s="2">
         <v>77</v>
       </c>
@@ -11252,19 +11233,19 @@
         <v>77</v>
       </c>
       <c r="AA81" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>234</v>
+        <v>77</v>
       </c>
       <c r="AC81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD81" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -11276,19 +11257,19 @@
         <v>77</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>77</v>
+        <v>246</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>77</v>
@@ -11296,11 +11277,9 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>494</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
         <v>77</v>
       </c>
@@ -11309,7 +11288,7 @@
         <v>78</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>77</v>
@@ -11318,19 +11297,23 @@
         <v>77</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>495</v>
+        <v>88</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>496</v>
+        <v>288</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="O82" t="s" s="2">
         <v>77</v>
       </c>
@@ -11378,31 +11361,31 @@
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>235</v>
+        <v>292</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>77</v>
+        <v>293</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>77</v>
+        <v>294</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>77</v>
@@ -11410,7 +11393,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11421,7 +11404,7 @@
         <v>78</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>77</v>
@@ -11430,23 +11413,21 @@
         <v>77</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>243</v>
+        <v>497</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>465</v>
+        <v>498</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>466</v>
+        <v>499</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>77</v>
       </c>
@@ -11494,13 +11475,13 @@
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>248</v>
+        <v>496</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>77</v>
@@ -11512,13 +11493,13 @@
         <v>77</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>249</v>
+        <v>501</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>250</v>
+        <v>502</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>77</v>
@@ -11526,7 +11507,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11546,23 +11527,21 @@
         <v>77</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>88</v>
+        <v>504</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>292</v>
+        <v>505</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>293</v>
+        <v>506</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>77</v>
       </c>
@@ -11610,7 +11589,7 @@
         <v>77</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>296</v>
+        <v>503</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
@@ -11628,13 +11607,13 @@
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>297</v>
+        <v>508</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>298</v>
+        <v>509</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>77</v>
@@ -11642,7 +11621,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11665,17 +11644,15 @@
         <v>77</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>501</v>
+        <v>88</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>502</v>
+        <v>229</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>504</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M85" s="2"/>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>77</v>
@@ -11724,7 +11701,7 @@
         <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>500</v>
+        <v>231</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
@@ -11736,19 +11713,19 @@
         <v>77</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>505</v>
+        <v>232</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>506</v>
+        <v>77</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>77</v>
@@ -11756,18 +11733,18 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>77</v>
@@ -11779,16 +11756,16 @@
         <v>77</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>508</v>
+        <v>131</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>509</v>
+        <v>234</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>510</v>
+        <v>235</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>511</v>
+        <v>163</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -11826,43 +11803,43 @@
         <v>77</v>
       </c>
       <c r="AA86" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="AC86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD86" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>507</v>
+        <v>237</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>512</v>
+        <v>232</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>513</v>
+        <v>77</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>77</v>
@@ -11870,9 +11847,11 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="B87" s="2"/>
+        <v>511</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>512</v>
+      </c>
       <c r="C87" t="s" s="2">
         <v>77</v>
       </c>
@@ -11881,7 +11860,7 @@
         <v>78</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>77</v>
@@ -11893,13 +11872,13 @@
         <v>77</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>88</v>
+        <v>513</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>240</v>
+        <v>514</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>241</v>
+        <v>515</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -11950,25 +11929,25 @@
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>230</v>
+        <v>77</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>77</v>
@@ -11982,11 +11961,11 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -12005,16 +11984,16 @@
         <v>77</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>131</v>
+        <v>517</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>232</v>
+        <v>518</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>233</v>
+        <v>519</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>163</v>
+        <v>520</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -12052,19 +12031,19 @@
         <v>77</v>
       </c>
       <c r="AA88" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>234</v>
+        <v>77</v>
       </c>
       <c r="AC88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD88" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>235</v>
+        <v>516</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>78</v>
@@ -12076,13 +12055,13 @@
         <v>77</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>230</v>
+        <v>521</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>77</v>
@@ -12091,234 +12070,6 @@
         <v>77</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="C89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
-      <c r="O89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P89" s="2"/>
-      <c r="Q89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="B90" s="2"/>
-      <c r="C90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="N90" s="2"/>
-      <c r="O90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P90" s="2"/>
-      <c r="Q90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN90" t="s" s="2">
         <v>77</v>
       </c>
     </row>
